--- a/src/predicciones/holt_winters/producto_88.xlsx
+++ b/src/predicciones/holt_winters/producto_88.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,2346 +404,2016 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44933</v>
       </c>
       <c r="B2">
-        <v>1.850744683925395</v>
+        <v>2.002929971782446</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44934</v>
       </c>
       <c r="B3">
-        <v>0.8605887974740039</v>
+        <v>1.002414200305474</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44935</v>
       </c>
       <c r="B4">
-        <v>0.9119972571353231</v>
+        <v>1.002707683642071</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44936</v>
       </c>
       <c r="B5">
-        <v>1.947417307411342</v>
+        <v>1.003001004499142</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44937</v>
       </c>
       <c r="B6">
-        <v>0.9367683988158558</v>
+        <v>1.003294165127032</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44938</v>
       </c>
       <c r="B7">
-        <v>0.9267280623993576</v>
+        <v>2.002897633099332</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44939</v>
       </c>
       <c r="B8">
-        <v>1.838534780656302</v>
+        <v>1.00512617259229</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44941</v>
       </c>
       <c r="B9">
-        <v>1.850021773481416</v>
+        <v>2.005023168470468</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44942</v>
       </c>
       <c r="B10">
-        <v>0.8598658870300242</v>
+        <v>1.004507396993496</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44943</v>
       </c>
       <c r="B11">
-        <v>0.9112743466913434</v>
+        <v>1.004800880330094</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44945</v>
       </c>
       <c r="B12">
-        <v>1.946694396967362</v>
+        <v>1.005094201187164</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44946</v>
       </c>
       <c r="B13">
-        <v>0.9360454883718762</v>
+        <v>1.005387361815055</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44955</v>
       </c>
       <c r="B14">
-        <v>0.9260051519553779</v>
+        <v>2.004990829787355</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44956</v>
       </c>
       <c r="B15">
-        <v>1.837811870212323</v>
+        <v>1.007219369280312</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44958</v>
       </c>
       <c r="B16">
-        <v>1.849298863037436</v>
+        <v>2.007116365158491</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44959</v>
       </c>
       <c r="B17">
-        <v>0.8591429765860443</v>
+        <v>1.006600593681519</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44961</v>
       </c>
       <c r="B18">
-        <v>0.9105514362473636</v>
+        <v>1.006894077018116</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44963</v>
       </c>
       <c r="B19">
-        <v>1.945971486523383</v>
+        <v>1.007187397875187</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44964</v>
       </c>
       <c r="B20">
-        <v>0.9353225779278963</v>
+        <v>1.007480558503077</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44965</v>
       </c>
       <c r="B21">
-        <v>0.925282241511398</v>
+        <v>2.007084026475378</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44967</v>
       </c>
       <c r="B22">
-        <v>1.837088959768343</v>
+        <v>1.009312565968335</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44968</v>
       </c>
       <c r="B23">
-        <v>1.848575952593456</v>
+        <v>2.009209561846514</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44969</v>
       </c>
       <c r="B24">
-        <v>0.8584200661420647</v>
+        <v>1.008693790369542</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44972</v>
       </c>
       <c r="B25">
-        <v>0.9098285258033839</v>
+        <v>1.008987273706139</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44973</v>
       </c>
       <c r="B26">
-        <v>1.945248576079403</v>
+        <v>1.00928059456321</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44974</v>
       </c>
       <c r="B27">
-        <v>0.9345996674839167</v>
+        <v>1.0095737551911</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44976</v>
       </c>
       <c r="B28">
-        <v>0.9245593310674184</v>
+        <v>2.0091772231634</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44977</v>
       </c>
       <c r="B29">
-        <v>1.836366049324363</v>
+        <v>1.011405762656358</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>44983</v>
       </c>
       <c r="B30">
-        <v>1.847853042149476</v>
+        <v>2.011302758534536</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>44984</v>
       </c>
       <c r="B31">
-        <v>0.8576971556980848</v>
+        <v>1.010786987057564</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>44988</v>
       </c>
       <c r="B32">
-        <v>0.909105615359404</v>
+        <v>1.011080470394162</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>44989</v>
       </c>
       <c r="B33">
-        <v>1.944525665635423</v>
+        <v>1.011373791251232</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>44991</v>
       </c>
       <c r="B34">
-        <v>0.9338767570399368</v>
+        <v>1.011666951879123</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>44994</v>
       </c>
       <c r="B35">
-        <v>0.9238364206234385</v>
+        <v>2.011270419851423</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>44995</v>
       </c>
       <c r="B36">
-        <v>1.835643138880383</v>
+        <v>1.01349895934438</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>44996</v>
       </c>
       <c r="B37">
-        <v>1.847130131705497</v>
+        <v>2.013395955222559</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>44998</v>
       </c>
       <c r="B38">
-        <v>0.8569742452541051</v>
+        <v>1.012880183745587</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>44999</v>
       </c>
       <c r="B39">
-        <v>0.9083827049154244</v>
+        <v>1.013173667082184</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45001</v>
       </c>
       <c r="B40">
-        <v>1.943802755191443</v>
+        <v>1.013466987939255</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45007</v>
       </c>
       <c r="B41">
-        <v>0.9331538465959571</v>
+        <v>1.013760148567145</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45009</v>
       </c>
       <c r="B42">
-        <v>0.9231135101794589</v>
+        <v>2.013363616539446</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45010</v>
       </c>
       <c r="B43">
-        <v>1.834920228436404</v>
+        <v>1.015592156032403</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45011</v>
       </c>
       <c r="B44">
-        <v>1.846407221261517</v>
+        <v>2.015489151910582</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45014</v>
       </c>
       <c r="B45">
-        <v>0.8562513348101253</v>
+        <v>1.01497338043361</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45015</v>
       </c>
       <c r="B46">
-        <v>0.9076597944714445</v>
+        <v>1.015266863770207</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45017</v>
       </c>
       <c r="B47">
-        <v>1.943079844747464</v>
+        <v>1.015560184627277</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45020</v>
       </c>
       <c r="B48">
-        <v>0.9324309361519773</v>
+        <v>1.015853345255168</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45025</v>
       </c>
       <c r="B49">
-        <v>0.922390599735479</v>
+        <v>2.015456813227468</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45028</v>
       </c>
       <c r="B50">
-        <v>1.834197317992424</v>
+        <v>1.017685352720426</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45033</v>
       </c>
       <c r="B51">
-        <v>1.845684310817537</v>
+        <v>2.017582348598604</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45034</v>
       </c>
       <c r="B52">
-        <v>0.8555284243661456</v>
+        <v>1.017066577121632</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45036</v>
       </c>
       <c r="B53">
-        <v>0.9069368840274649</v>
+        <v>1.01736006045823</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45037</v>
       </c>
       <c r="B54">
-        <v>1.942356934303484</v>
+        <v>1.0176533813153</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45039</v>
       </c>
       <c r="B55">
-        <v>0.9317080257079976</v>
+        <v>1.017946541943191</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45044</v>
       </c>
       <c r="B56">
-        <v>0.9216676892914993</v>
+        <v>2.017550009915491</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45045</v>
       </c>
       <c r="B57">
-        <v>1.833474407548444</v>
+        <v>1.019778549408448</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45048</v>
       </c>
       <c r="B58">
-        <v>1.844961400373557</v>
+        <v>2.019675545286627</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45050</v>
       </c>
       <c r="B59">
-        <v>0.8548055139221657</v>
+        <v>1.019159773809655</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45070</v>
       </c>
       <c r="B60">
-        <v>0.906213973583485</v>
+        <v>1.019453257146252</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45071</v>
       </c>
       <c r="B61">
-        <v>1.941634023859504</v>
+        <v>1.019746578003323</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45072</v>
       </c>
       <c r="B62">
-        <v>0.9309851152640177</v>
+        <v>1.020039738631214</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45073</v>
       </c>
       <c r="B63">
-        <v>0.9209447788475195</v>
+        <v>2.019643206603514</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45074</v>
       </c>
       <c r="B64">
-        <v>1.832751497104464</v>
+        <v>1.021871746096471</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45076</v>
       </c>
       <c r="B65">
-        <v>1.844238489929578</v>
+        <v>2.02176874197465</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45079</v>
       </c>
       <c r="B66">
-        <v>0.8540826034781861</v>
+        <v>1.021252970497678</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45085</v>
       </c>
       <c r="B67">
-        <v>0.9054910631395053</v>
+        <v>1.021546453834275</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45086</v>
       </c>
       <c r="B68">
-        <v>1.940911113415524</v>
+        <v>1.021839774691345</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45087</v>
       </c>
       <c r="B69">
-        <v>0.9302622048200381</v>
+        <v>1.022132935319236</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45091</v>
       </c>
       <c r="B70">
-        <v>0.9202218684035398</v>
+        <v>2.021736403291536</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45094</v>
       </c>
       <c r="B71">
-        <v>1.832028586660485</v>
+        <v>1.023964942784494</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45095</v>
       </c>
       <c r="B72">
-        <v>1.843515579485598</v>
+        <v>2.023861938662672</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45099</v>
       </c>
       <c r="B73">
-        <v>0.8533596930342062</v>
+        <v>1.0233461671857</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45101</v>
       </c>
       <c r="B74">
-        <v>0.9047681526955255</v>
+        <v>1.023639650522298</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45102</v>
       </c>
       <c r="B75">
-        <v>1.940188202971544</v>
+        <v>1.023932971379368</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45109</v>
       </c>
       <c r="B76">
-        <v>0.9295392943760582</v>
+        <v>1.024226132007259</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45113</v>
       </c>
       <c r="B77">
-        <v>0.9194989579595599</v>
+        <v>2.023829599979559</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45115</v>
       </c>
       <c r="B78">
-        <v>1.831305676216505</v>
+        <v>1.026058139472517</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45118</v>
       </c>
       <c r="B79">
-        <v>1.842792669041618</v>
+        <v>2.025955135350695</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45119</v>
       </c>
       <c r="B80">
-        <v>0.8526367825902266</v>
+        <v>1.025439363873723</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45121</v>
       </c>
       <c r="B81">
-        <v>0.9040452422515458</v>
+        <v>1.02573284721032</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45122</v>
       </c>
       <c r="B82">
-        <v>1.939465292527565</v>
+        <v>1.026026168067391</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45124</v>
       </c>
       <c r="B83">
-        <v>0.9288163839320785</v>
+        <v>1.026319328695282</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45128</v>
       </c>
       <c r="B84">
-        <v>0.9187760475155803</v>
+        <v>2.025922796667582</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45129</v>
       </c>
       <c r="B85">
-        <v>1.830582765772525</v>
+        <v>1.028151336160539</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45130</v>
       </c>
       <c r="B86">
-        <v>1.842069758597638</v>
+        <v>2.028048332038717</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45131</v>
       </c>
       <c r="B87">
-        <v>0.8519138721462467</v>
+        <v>1.027532560561746</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45132</v>
       </c>
       <c r="B88">
-        <v>0.9033223318075659</v>
+        <v>1.027826043898343</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45133</v>
       </c>
       <c r="B89">
-        <v>1.938742382083585</v>
+        <v>1.028119364755413</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45135</v>
       </c>
       <c r="B90">
-        <v>0.9280934734880987</v>
+        <v>1.028412525383304</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45142</v>
       </c>
       <c r="B91">
-        <v>0.9180531370716004</v>
+        <v>2.028015993355604</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45145</v>
       </c>
       <c r="B92">
-        <v>1.829859855328545</v>
+        <v>1.030244532848562</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45147</v>
       </c>
       <c r="B93">
-        <v>1.841346848153659</v>
+        <v>2.03014152872674</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45148</v>
       </c>
       <c r="B94">
-        <v>0.851190961702267</v>
+        <v>1.029625757249768</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45150</v>
       </c>
       <c r="B95">
-        <v>0.9025994213635863</v>
+        <v>1.029919240586366</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45152</v>
       </c>
       <c r="B96">
-        <v>1.938019471639605</v>
+        <v>1.030212561443436</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45154</v>
       </c>
       <c r="B97">
-        <v>0.927370563044119</v>
+        <v>1.030505722071327</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45155</v>
       </c>
       <c r="B98">
-        <v>0.9173302266276208</v>
+        <v>2.030109190043627</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45157</v>
       </c>
       <c r="B99">
-        <v>1.829136944884566</v>
+        <v>1.032337729536585</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45160</v>
       </c>
       <c r="B100">
-        <v>1.840623937709679</v>
+        <v>2.032234725414763</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45161</v>
       </c>
       <c r="B101">
-        <v>0.8504680512582872</v>
+        <v>1.031718953937791</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45162</v>
       </c>
       <c r="B102">
-        <v>0.9018765109196064</v>
+        <v>1.032012437274388</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45163</v>
       </c>
       <c r="B103">
-        <v>1.937296561195625</v>
+        <v>1.032305758131459</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45164</v>
       </c>
       <c r="B104">
-        <v>0.9266476526001391</v>
+        <v>1.03259891875935</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45165</v>
       </c>
       <c r="B105">
-        <v>0.9166073161836409</v>
+        <v>2.03220238673165</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45166</v>
       </c>
       <c r="B106">
-        <v>1.828414034440586</v>
+        <v>1.034430926224607</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45167</v>
       </c>
       <c r="B107">
-        <v>1.839901027265699</v>
+        <v>2.034327922102785</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45172</v>
       </c>
       <c r="B108">
-        <v>0.8497451408143075</v>
+        <v>1.033812150625814</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45175</v>
       </c>
       <c r="B109">
-        <v>0.9011536004756268</v>
+        <v>1.034105633962411</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45176</v>
       </c>
       <c r="B110">
-        <v>1.936573650751646</v>
+        <v>1.034398954819481</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45178</v>
       </c>
       <c r="B111">
-        <v>0.9259247421561595</v>
+        <v>1.034692115447372</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45179</v>
       </c>
       <c r="B112">
-        <v>0.9158844057396612</v>
+        <v>2.034295583419672</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45181</v>
       </c>
       <c r="B113">
-        <v>1.827691123996606</v>
+        <v>1.03652412291263</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45182</v>
       </c>
       <c r="B114">
-        <v>1.839178116821719</v>
+        <v>2.036421118790808</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45183</v>
       </c>
       <c r="B115">
-        <v>0.8490222303703276</v>
+        <v>1.035905347313836</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45186</v>
       </c>
       <c r="B116">
-        <v>0.9004306900316469</v>
+        <v>1.036198830650434</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45191</v>
       </c>
       <c r="B117">
-        <v>1.935850740307666</v>
+        <v>1.036492151507504</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45193</v>
       </c>
       <c r="B118">
-        <v>0.9252018317121796</v>
+        <v>1.036785312135395</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45194</v>
       </c>
       <c r="B119">
-        <v>0.9151614952956814</v>
+        <v>2.036388780107695</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45195</v>
       </c>
       <c r="B120">
-        <v>1.826968213552626</v>
+        <v>1.038617319600653</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45196</v>
       </c>
       <c r="B121">
-        <v>1.83845520637774</v>
+        <v>2.038514315478831</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45198</v>
       </c>
       <c r="B122">
-        <v>0.848299319926348</v>
+        <v>1.037998544001859</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45201</v>
       </c>
       <c r="B123">
-        <v>0.8997077795876672</v>
+        <v>1.038292027338456</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45202</v>
       </c>
       <c r="B124">
-        <v>1.935127829863686</v>
+        <v>1.038585348195527</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45203</v>
       </c>
       <c r="B125">
-        <v>0.9244789212682</v>
+        <v>1.038878508823418</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45204</v>
       </c>
       <c r="B126">
-        <v>0.9144385848517017</v>
+        <v>2.038481976795718</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45207</v>
       </c>
       <c r="B127">
-        <v>1.826245303108647</v>
+        <v>1.040710516288675</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45213</v>
       </c>
       <c r="B128">
-        <v>1.83773229593376</v>
+        <v>2.040607512166853</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45215</v>
       </c>
       <c r="B129">
-        <v>0.8475764094823681</v>
+        <v>1.040091740689882</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45223</v>
       </c>
       <c r="B130">
-        <v>0.8989848691436874</v>
+        <v>1.040385224026479</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45224</v>
       </c>
       <c r="B131">
-        <v>1.934404919419706</v>
+        <v>1.04067854488355</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45229</v>
       </c>
       <c r="B132">
-        <v>0.9237560108242201</v>
+        <v>1.04097170551144</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45232</v>
       </c>
       <c r="B133">
-        <v>0.9137156744077218</v>
+        <v>2.04057517348374</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45236</v>
       </c>
       <c r="B134">
-        <v>1.825522392664667</v>
+        <v>1.042803712976698</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45240</v>
       </c>
       <c r="B135">
-        <v>1.83700938548978</v>
+        <v>2.042700708854876</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45243</v>
       </c>
       <c r="B136">
-        <v>0.8468534990383885</v>
+        <v>1.042184937377904</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45244</v>
       </c>
       <c r="B137">
-        <v>0.8982619586997077</v>
+        <v>1.042478420714502</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45245</v>
       </c>
       <c r="B138">
-        <v>1.933682008975727</v>
+        <v>1.042771741571572</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45246</v>
       </c>
       <c r="B139">
-        <v>0.9230331003802404</v>
+        <v>1.043064902199463</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45247</v>
       </c>
       <c r="B140">
-        <v>0.9129927639637422</v>
+        <v>2.042668370171763</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45248</v>
       </c>
       <c r="B141">
-        <v>1.824799482220687</v>
+        <v>1.04489690966472</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45249</v>
       </c>
       <c r="B142">
-        <v>1.8362864750458</v>
+        <v>2.044793905542899</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45255</v>
       </c>
       <c r="B143">
-        <v>0.8461305885944086</v>
+        <v>1.044278134065927</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45257</v>
       </c>
       <c r="B144">
-        <v>0.8975390482557278</v>
+        <v>1.044571617402524</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45259</v>
       </c>
       <c r="B145">
-        <v>1.932959098531747</v>
+        <v>1.044864938259595</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45262</v>
       </c>
       <c r="B146">
-        <v>0.9223101899362606</v>
+        <v>1.045158098887486</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45264</v>
       </c>
       <c r="B147">
-        <v>0.9122698535197623</v>
+        <v>2.044761566859786</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45266</v>
       </c>
       <c r="B148">
-        <v>1.824076571776707</v>
+        <v>1.046990106352743</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>45267</v>
       </c>
       <c r="B149">
-        <v>1.83556356460182</v>
+        <v>2.046887102230921</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>45269</v>
       </c>
       <c r="B150">
-        <v>0.8454076781504289</v>
+        <v>1.04637133075395</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>45270</v>
       </c>
       <c r="B151">
-        <v>0.8968161378117482</v>
+        <v>1.046664814090547</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>45272</v>
       </c>
       <c r="B152">
-        <v>1.932236188087767</v>
+        <v>1.046958134947618</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>45273</v>
       </c>
       <c r="B153">
-        <v>0.9215872794922809</v>
+        <v>1.047251295575508</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>45279</v>
       </c>
       <c r="B154">
-        <v>0.9115469430757827</v>
+        <v>2.046854763547809</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>45284</v>
       </c>
       <c r="B155">
-        <v>1.823353661332727</v>
+        <v>1.049083303040766</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>45287</v>
       </c>
       <c r="B156">
-        <v>1.834840654157841</v>
+        <v>2.048980298918944</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>45289</v>
       </c>
       <c r="B157">
-        <v>0.8446847677064491</v>
+        <v>1.048464527441972</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>45290</v>
       </c>
       <c r="B158">
-        <v>0.8960932273677683</v>
+        <v>1.04875801077857</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>45293</v>
       </c>
       <c r="B159">
-        <v>1.931513277643787</v>
+        <v>1.04905133163564</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
+      <c r="A160" s="2">
+        <v>45294</v>
       </c>
       <c r="B160">
-        <v>0.920864369048301</v>
+        <v>1.049344492263531</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
+      <c r="A161" s="2">
+        <v>45295</v>
       </c>
       <c r="B161">
-        <v>0.9108240326318028</v>
+        <v>2.048947960235831</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
+      <c r="A162" s="2">
+        <v>45296</v>
       </c>
       <c r="B162">
-        <v>1.822630750888748</v>
+        <v>1.051176499728788</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
+      <c r="A163" s="2">
+        <v>45297</v>
       </c>
       <c r="B163">
-        <v>1.834117743713861</v>
+        <v>2.051073495606967</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
+      <c r="A164" s="2">
+        <v>45298</v>
       </c>
       <c r="B164">
-        <v>0.8439618572624694</v>
+        <v>1.050557724129995</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
+      <c r="A165" s="2">
+        <v>45299</v>
       </c>
       <c r="B165">
-        <v>0.8953703169237887</v>
+        <v>1.050851207466592</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
+      <c r="A166" s="2">
+        <v>45301</v>
       </c>
       <c r="B166">
-        <v>1.930790367199808</v>
+        <v>1.051144528323663</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
+      <c r="A167" s="2">
+        <v>45302</v>
       </c>
       <c r="B167">
-        <v>0.9201414586043214</v>
+        <v>1.051437688951554</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
+      <c r="A168" s="2">
+        <v>45305</v>
       </c>
       <c r="B168">
-        <v>0.9101011221878231</v>
+        <v>2.051041156923854</v>
       </c>
       <c r="C168">
         <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>167</v>
+      <c r="A169" s="2">
+        <v>45306</v>
       </c>
       <c r="B169">
-        <v>1.821907840444768</v>
+        <v>1.053269696416811</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>168</v>
+      <c r="A170" s="2">
+        <v>45309</v>
       </c>
       <c r="B170">
-        <v>1.833394833269881</v>
+        <v>2.05316669229499</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1">
-        <v>169</v>
+      <c r="A171" s="2">
+        <v>45313</v>
       </c>
       <c r="B171">
-        <v>0.8432389468184895</v>
+        <v>1.052650920818018</v>
       </c>
       <c r="C171">
         <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>170</v>
+      <c r="A172" s="2">
+        <v>45314</v>
       </c>
       <c r="B172">
-        <v>0.8946474064798088</v>
+        <v>1.052944404154615</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1">
-        <v>171</v>
+      <c r="A173" s="2">
+        <v>45315</v>
       </c>
       <c r="B173">
-        <v>1.930067456755828</v>
+        <v>1.053237725011686</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1">
-        <v>172</v>
+      <c r="A174" s="2">
+        <v>45316</v>
       </c>
       <c r="B174">
-        <v>0.9194185481603415</v>
+        <v>1.053530885639576</v>
       </c>
       <c r="C174">
         <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>173</v>
+      <c r="A175" s="2">
+        <v>45317</v>
       </c>
       <c r="B175">
-        <v>0.9093782117438433</v>
+        <v>2.053134353611877</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1">
-        <v>174</v>
+      <c r="A176" s="2">
+        <v>45318</v>
       </c>
       <c r="B176">
-        <v>1.821184930000788</v>
+        <v>1.055362893104834</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="1">
-        <v>175</v>
+      <c r="A177" s="2">
+        <v>45320</v>
       </c>
       <c r="B177">
-        <v>1.832671922825901</v>
+        <v>2.055259888983012</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1">
-        <v>176</v>
+      <c r="A178" s="2">
+        <v>45321</v>
       </c>
       <c r="B178">
-        <v>0.8425160363745099</v>
+        <v>1.05474411750604</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>177</v>
+      <c r="A179" s="2">
+        <v>45323</v>
       </c>
       <c r="B179">
-        <v>0.8939244960358291</v>
+        <v>1.055037600842638</v>
       </c>
       <c r="C179">
         <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="1">
-        <v>178</v>
+      <c r="A180" s="2">
+        <v>45326</v>
       </c>
       <c r="B180">
-        <v>1.929344546311848</v>
+        <v>1.055330921699708</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="1">
-        <v>179</v>
+      <c r="A181" s="2">
+        <v>45329</v>
       </c>
       <c r="B181">
-        <v>0.9186956377163619</v>
+        <v>1.055624082327599</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1">
-        <v>180</v>
+      <c r="A182" s="2">
+        <v>45335</v>
       </c>
       <c r="B182">
-        <v>0.9086553012998636</v>
+        <v>2.055227550299899</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>181</v>
+      <c r="A183" s="2">
+        <v>45339</v>
       </c>
       <c r="B183">
-        <v>1.820462019556808</v>
+        <v>1.057456089792856</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="1">
-        <v>182</v>
+      <c r="A184" s="2">
+        <v>45341</v>
       </c>
       <c r="B184">
-        <v>1.831949012381922</v>
+        <v>2.057353085671035</v>
       </c>
       <c r="C184">
         <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185">
-        <v>0.84179312593053</v>
-      </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>0.8932015855918493</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187">
-        <v>1.928621635867868</v>
-      </c>
-      <c r="C187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188">
-        <v>0.917972727272382</v>
-      </c>
-      <c r="C188">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>0.9079323908558837</v>
-      </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>1.819739109112829</v>
-      </c>
-      <c r="C190">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191">
-        <v>1.831226101937942</v>
-      </c>
-      <c r="C191">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192">
-        <v>0.8410702154865504</v>
-      </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193">
-        <v>0.8924786751478696</v>
-      </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-      <c r="B194">
-        <v>1.927898725423889</v>
-      </c>
-      <c r="C194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-      <c r="B195">
-        <v>0.9172498168284023</v>
-      </c>
-      <c r="C195">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="B196">
-        <v>0.9072094804119041</v>
-      </c>
-      <c r="C196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197">
-        <v>1.819016198668849</v>
-      </c>
-      <c r="C197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198">
-        <v>1.830503191493962</v>
-      </c>
-      <c r="C198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199">
-        <v>0.8403473050425705</v>
-      </c>
-      <c r="C199">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200">
-        <v>0.8917557647038897</v>
-      </c>
-      <c r="C200">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201">
-        <v>1.927175814979909</v>
-      </c>
-      <c r="C201">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202">
-        <v>0.9165269063844225</v>
-      </c>
-      <c r="C202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203">
-        <v>0.9064865699679242</v>
-      </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204">
-        <v>1.818293288224869</v>
-      </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205">
-        <v>1.829780281049982</v>
-      </c>
-      <c r="C205">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206">
-        <v>0.8396243945985908</v>
-      </c>
-      <c r="C206">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207">
-        <v>0.8910328542599101</v>
-      </c>
-      <c r="C207">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208">
-        <v>1.926452904535929</v>
-      </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209">
-        <v>0.9158039959404428</v>
-      </c>
-      <c r="C209">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210">
-        <v>0.9057636595239446</v>
-      </c>
-      <c r="C210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211">
-        <v>1.817570377780889</v>
-      </c>
-      <c r="C211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212">
-        <v>1.829057370606002</v>
-      </c>
-      <c r="C212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213">
-        <v>0.838901484154611</v>
-      </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214">
-        <v>0.8903099438159302</v>
-      </c>
-      <c r="C214">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
